--- a/SEZNAM SESTAVNIH DELOV.xlsx
+++ b/SEZNAM SESTAVNIH DELOV.xlsx
@@ -69,9 +69,6 @@
     <t>https://www.pololu.com/category/89/pololu-wheels-and-tracks</t>
   </si>
   <si>
-    <t>wheel 60x7</t>
-  </si>
-  <si>
     <t>H-BRIDGE</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>http://si.farnell.com/stmicroelectronics/l7805abv/ic-v-reg-5v/dp/1467758?exaMfpn=true&amp;categoryId=&amp;searchRef=SearchLookAhead&amp;searchView=table&amp;iscrfnonsku=false</t>
   </si>
   <si>
-    <t>STMICROELECTRONICS  L7805ABV</t>
-  </si>
-  <si>
     <t>ENCODER1</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>https://learn.adafruit.com/adafruit-10-dof-imu-breakout-lsm303-l3gd20-bmp180/introduction</t>
+  </si>
+  <si>
+    <t>Regulator STMICROELECTRONICS  L7805ABV</t>
+  </si>
+  <si>
+    <t>wheel 32x7</t>
   </si>
 </sst>
 </file>
@@ -557,12 +557,12 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="184.5703125" customWidth="1"/>
@@ -639,13 +639,13 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -668,12 +668,12 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -682,12 +682,12 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -696,12 +696,12 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -710,12 +710,12 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -724,12 +724,12 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -738,12 +738,12 @@
         <v>0.4</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -752,12 +752,12 @@
         <v>0.4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -766,12 +766,12 @@
         <v>0.53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -780,12 +780,12 @@
         <v>0.7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -794,18 +794,18 @@
         <v>0.15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -820,9 +820,10 @@
     <hyperlink ref="E14" r:id="rId8"/>
     <hyperlink ref="E17" r:id="rId9"/>
     <hyperlink ref="E18" r:id="rId10"/>
+    <hyperlink ref="E6" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -842,10 +843,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,13 +910,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -923,13 +924,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
